--- a/学部２年/後期/熱力学2/課題/8223036 栗山淳 熱力学2 第9回レポート.xlsx
+++ b/学部２年/後期/熱力学2/課題/8223036 栗山淳 熱力学2 第9回レポート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kurit\ドキュメント\Tokyo-University-of-Science\学部２年\後期\熱力学2\課題\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AAEBB26-E857-4426-B6E1-F91ABF8F9444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63692FED-FFC2-4CAF-B576-F60E0502429A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="0" windowWidth="10965" windowHeight="13763" xr2:uid="{6F1D43FC-AFC2-48E5-A37C-F669B057C769}"/>
+    <workbookView xWindow="0" yWindow="442" windowWidth="14227" windowHeight="13238" xr2:uid="{6F1D43FC-AFC2-48E5-A37C-F669B057C769}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1321,6 +1321,286 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C3B9-4BB6-8F34-0A3A3772C2EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$21:$J$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$21:$K$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>349.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>351.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>354.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>354.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>356.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>355.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>358.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>363.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>364.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>365.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>367.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>369.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>370.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>371.7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>377.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>378.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>381.7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>384.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>385.7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>388.3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>388.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>394.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>397.9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>401.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>404.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>407.1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>410.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>410.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>411.9</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>416.9</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>420.2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>421.3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>423.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C37E-4287-ABE9-F280791F30BB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2513,8 +2793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7020CBC9-DD04-4E5E-937C-418D82A2ACCE}">
   <dimension ref="B1:K164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -3914,31 +4194,31 @@
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B44">
-        <f>SUM(B4:B41)</f>
+        <f t="shared" ref="B44:H44" si="6">SUM(B4:B41)</f>
         <v>76209</v>
       </c>
       <c r="C44">
-        <f>SUM(C4:C41)</f>
+        <f t="shared" si="6"/>
         <v>14573</v>
       </c>
       <c r="D44">
-        <f>SUM(D4:D41)</f>
+        <f t="shared" si="6"/>
         <v>152841719</v>
       </c>
       <c r="E44">
-        <f>SUM(E4:E41)</f>
+        <f t="shared" si="6"/>
         <v>306542395719</v>
       </c>
       <c r="F44">
-        <f>SUM(F4:F41)</f>
+        <f t="shared" si="6"/>
         <v>614825911604291</v>
       </c>
       <c r="G44">
-        <f>SUM(G4:G41)</f>
+        <f t="shared" si="6"/>
         <v>29235320.999999989</v>
       </c>
       <c r="H44">
-        <f>SUM(H4:H41)</f>
+        <f t="shared" si="6"/>
         <v>58651585026.799995</v>
       </c>
       <c r="J44">
@@ -4224,7 +4504,7 @@
         <v>2035</v>
       </c>
       <c r="K69">
-        <f t="shared" ref="K69:K132" si="6">$B$50*J69^2 +$D$50*J69+$F$50</f>
+        <f t="shared" ref="K69:K132" si="7">$B$50*J69^2 +$D$50*J69+$F$50</f>
         <v>454.53798626278149</v>
       </c>
     </row>
@@ -4233,7 +4513,7 @@
         <v>2036</v>
       </c>
       <c r="K70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>457.49194758419617</v>
       </c>
     </row>
@@ -4242,7 +4522,7 @@
         <v>2037</v>
       </c>
       <c r="K71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>460.47748512662656</v>
       </c>
     </row>
@@ -4251,7 +4531,7 @@
         <v>2038</v>
       </c>
       <c r="K72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>463.49459889008722</v>
       </c>
     </row>
@@ -4260,7 +4540,7 @@
         <v>2039</v>
       </c>
       <c r="K73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>466.54328887455631</v>
       </c>
     </row>
@@ -4269,7 +4549,7 @@
         <v>2040</v>
       </c>
       <c r="K74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>469.62355508006294</v>
       </c>
     </row>
@@ -4278,7 +4558,7 @@
         <v>2041</v>
       </c>
       <c r="K75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>472.73539750656346</v>
       </c>
     </row>
@@ -4287,7 +4567,7 @@
         <v>2042</v>
       </c>
       <c r="K76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>475.87881615410151</v>
       </c>
     </row>
@@ -4296,7 +4576,7 @@
         <v>2043</v>
       </c>
       <c r="K77">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>479.05381102264801</v>
       </c>
     </row>
@@ -4305,7 +4585,7 @@
         <v>2044</v>
       </c>
       <c r="K78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>482.26038211220293</v>
       </c>
     </row>
@@ -4314,7 +4594,7 @@
         <v>2045</v>
       </c>
       <c r="K79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>485.4985294227954</v>
       </c>
     </row>
@@ -4323,7 +4603,7 @@
         <v>2046</v>
       </c>
       <c r="K80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>488.7682529543963</v>
       </c>
     </row>
@@ -4332,7 +4612,7 @@
         <v>2047</v>
       </c>
       <c r="K81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>492.06955270702019</v>
       </c>
     </row>
@@ -4341,7 +4621,7 @@
         <v>2048</v>
       </c>
       <c r="K82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>495.40242868065252</v>
       </c>
     </row>
@@ -4350,7 +4630,7 @@
         <v>2049</v>
       </c>
       <c r="K83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>498.76688087530783</v>
       </c>
     </row>
@@ -4359,7 +4639,7 @@
         <v>2050</v>
       </c>
       <c r="K84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>502.16290929098614</v>
       </c>
     </row>
@@ -4368,7 +4648,7 @@
         <v>2051</v>
       </c>
       <c r="K85">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>505.59051392767287</v>
       </c>
     </row>
@@ -4377,7 +4657,7 @@
         <v>2052</v>
       </c>
       <c r="K86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>509.0496947853826</v>
       </c>
     </row>
@@ -4386,7 +4666,7 @@
         <v>2053</v>
       </c>
       <c r="K87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>512.54045186410076</v>
       </c>
     </row>
@@ -4395,7 +4675,7 @@
         <v>2054</v>
       </c>
       <c r="K88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>516.06278516384191</v>
       </c>
     </row>
@@ -4404,7 +4684,7 @@
         <v>2055</v>
       </c>
       <c r="K89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>519.6166946846206</v>
       </c>
     </row>
@@ -4413,7 +4693,7 @@
         <v>2056</v>
       </c>
       <c r="K90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>523.20218042639317</v>
       </c>
     </row>
@@ -4422,7 +4702,7 @@
         <v>2057</v>
       </c>
       <c r="K91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>526.81924238920328</v>
       </c>
     </row>
@@ -4431,7 +4711,7 @@
         <v>2058</v>
       </c>
       <c r="K92">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>530.46788057300728</v>
       </c>
     </row>
@@ -4440,7 +4720,7 @@
         <v>2059</v>
       </c>
       <c r="K93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>534.14809497784881</v>
       </c>
     </row>
@@ -4449,7 +4729,7 @@
         <v>2060</v>
       </c>
       <c r="K94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>537.85988560369879</v>
       </c>
     </row>
@@ -4458,7 +4738,7 @@
         <v>2061</v>
       </c>
       <c r="K95">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>541.60325245055719</v>
       </c>
     </row>
@@ -4467,7 +4747,7 @@
         <v>2062</v>
       </c>
       <c r="K96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>545.37819551845314</v>
       </c>
     </row>
@@ -4476,7 +4756,7 @@
         <v>2063</v>
       </c>
       <c r="K97">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>549.18471480735752</v>
       </c>
     </row>
@@ -4485,7 +4765,7 @@
         <v>2064</v>
       </c>
       <c r="K98">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>553.02281031728489</v>
       </c>
     </row>
@@ -4494,7 +4774,7 @@
         <v>2065</v>
       </c>
       <c r="K99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>556.89248204823525</v>
       </c>
     </row>
@@ -4503,7 +4783,7 @@
         <v>2066</v>
       </c>
       <c r="K100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>560.79373000017949</v>
       </c>
     </row>
@@ -4512,7 +4792,7 @@
         <v>2067</v>
       </c>
       <c r="K101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>564.72655417317583</v>
       </c>
     </row>
@@ -4521,7 +4801,7 @@
         <v>2068</v>
       </c>
       <c r="K102">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>568.69095456716605</v>
       </c>
     </row>
@@ -4530,7 +4810,7 @@
         <v>2069</v>
       </c>
       <c r="K103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>572.68693118217925</v>
       </c>
     </row>
@@ -4539,7 +4819,7 @@
         <v>2070</v>
       </c>
       <c r="K104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>576.71448401820089</v>
       </c>
     </row>
@@ -4548,7 +4828,7 @@
         <v>2071</v>
       </c>
       <c r="K105">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>580.77361307524552</v>
       </c>
     </row>
@@ -4557,7 +4837,7 @@
         <v>2072</v>
       </c>
       <c r="K106">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>584.86431835332769</v>
       </c>
     </row>
@@ -4566,7 +4846,7 @@
         <v>2073</v>
       </c>
       <c r="K107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>588.98659985240374</v>
       </c>
     </row>
@@ -4575,7 +4855,7 @@
         <v>2074</v>
       </c>
       <c r="K108">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>593.14045757251733</v>
       </c>
     </row>
@@ -4584,7 +4864,7 @@
         <v>2075</v>
       </c>
       <c r="K109">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>597.32589151363936</v>
       </c>
     </row>
@@ -4593,7 +4873,7 @@
         <v>2076</v>
       </c>
       <c r="K110">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>601.54290167576983</v>
       </c>
     </row>
@@ -4602,7 +4882,7 @@
         <v>2077</v>
       </c>
       <c r="K111">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>605.79148805893783</v>
       </c>
     </row>
@@ -4611,7 +4891,7 @@
         <v>2078</v>
       </c>
       <c r="K112">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>610.07165066311427</v>
       </c>
     </row>
@@ -4620,7 +4900,7 @@
         <v>2079</v>
       </c>
       <c r="K113">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>614.3833894883137</v>
       </c>
     </row>
@@ -4629,7 +4909,7 @@
         <v>2080</v>
       </c>
       <c r="K114">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>618.72670453452156</v>
       </c>
     </row>
@@ -4638,7 +4918,7 @@
         <v>2081</v>
       </c>
       <c r="K115">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>623.10159580175241</v>
       </c>
     </row>
@@ -4647,7 +4927,7 @@
         <v>2082</v>
       </c>
       <c r="K116">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>627.5080632899917</v>
       </c>
     </row>
@@ -4656,7 +4936,7 @@
         <v>2083</v>
       </c>
       <c r="K117">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>631.94610699925397</v>
       </c>
     </row>
@@ -4665,7 +4945,7 @@
         <v>2084</v>
       </c>
       <c r="K118">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>636.41572692955378</v>
       </c>
     </row>
@@ -4674,7 +4954,7 @@
         <v>2085</v>
       </c>
       <c r="K119">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>640.91692308084748</v>
       </c>
     </row>
@@ -4683,7 +4963,7 @@
         <v>2086</v>
       </c>
       <c r="K120">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>645.44969545316417</v>
       </c>
     </row>
@@ -4692,7 +4972,7 @@
         <v>2087</v>
       </c>
       <c r="K121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>650.01404404650384</v>
       </c>
     </row>
@@ -4701,7 +4981,7 @@
         <v>2088</v>
       </c>
       <c r="K122">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>654.60996886085195</v>
       </c>
     </row>
@@ -4710,7 +4990,7 @@
         <v>2089</v>
       </c>
       <c r="K123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>659.2374698962376</v>
       </c>
     </row>
@@ -4719,7 +4999,7 @@
         <v>2090</v>
       </c>
       <c r="K124">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>663.89654715261713</v>
       </c>
     </row>
@@ -4728,7 +5008,7 @@
         <v>2091</v>
       </c>
       <c r="K125">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>668.5872006300342</v>
       </c>
     </row>
@@ -4737,7 +5017,7 @@
         <v>2092</v>
       </c>
       <c r="K126">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>673.30943032845971</v>
       </c>
     </row>
@@ -4746,7 +5026,7 @@
         <v>2093</v>
       </c>
       <c r="K127">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>678.06323624789366</v>
       </c>
     </row>
@@ -4755,7 +5035,7 @@
         <v>2094</v>
       </c>
       <c r="K128">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>682.84861838836514</v>
       </c>
     </row>
@@ -4764,7 +5044,7 @@
         <v>2095</v>
       </c>
       <c r="K129">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>687.66557674984506</v>
       </c>
     </row>
@@ -4773,7 +5053,7 @@
         <v>2096</v>
       </c>
       <c r="K130">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>692.51411133234797</v>
       </c>
     </row>
@@ -4782,7 +5062,7 @@
         <v>2097</v>
       </c>
       <c r="K131">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>697.39422213585931</v>
       </c>
     </row>
@@ -4791,7 +5071,7 @@
         <v>2098</v>
       </c>
       <c r="K132">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>702.30590916040819</v>
       </c>
     </row>
@@ -4800,7 +5080,7 @@
         <v>2099</v>
       </c>
       <c r="K133">
-        <f t="shared" ref="K133:K164" si="7">$B$50*J133^2 +$D$50*J133+$F$50</f>
+        <f t="shared" ref="K133:K164" si="8">$B$50*J133^2 +$D$50*J133+$F$50</f>
         <v>707.24917240595096</v>
       </c>
     </row>
@@ -4809,7 +5089,7 @@
         <v>2100</v>
       </c>
       <c r="K134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>712.22401187251671</v>
       </c>
     </row>
@@ -4818,7 +5098,7 @@
         <v>2101</v>
       </c>
       <c r="K135">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>717.23042756012001</v>
       </c>
     </row>
@@ -4827,7 +5107,7 @@
         <v>2102</v>
       </c>
       <c r="K136">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>722.26841946871718</v>
       </c>
     </row>
@@ -4836,7 +5116,7 @@
         <v>2103</v>
       </c>
       <c r="K137">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>727.3379875983519</v>
       </c>
     </row>
@@ -4845,7 +5125,7 @@
         <v>2104</v>
       </c>
       <c r="K138">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>732.4391319489805</v>
       </c>
     </row>
@@ -4854,7 +5134,7 @@
         <v>2105</v>
       </c>
       <c r="K139">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>737.57185252064664</v>
       </c>
     </row>
@@ -4863,7 +5143,7 @@
         <v>2106</v>
       </c>
       <c r="K140">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>742.73614931332122</v>
       </c>
     </row>
@@ -4872,7 +5152,7 @@
         <v>2107</v>
       </c>
       <c r="K141">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>747.93202232701879</v>
       </c>
     </row>
@@ -4881,7 +5161,7 @@
         <v>2108</v>
       </c>
       <c r="K142">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>753.15947156173934</v>
       </c>
     </row>
@@ -4890,7 +5170,7 @@
         <v>2109</v>
       </c>
       <c r="K143">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>758.41849701746833</v>
       </c>
     </row>
@@ -4899,7 +5179,7 @@
         <v>2110</v>
       </c>
       <c r="K144">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>763.7090986942203</v>
       </c>
     </row>
@@ -4908,7 +5188,7 @@
         <v>2111</v>
       </c>
       <c r="K145">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>769.03127659199527</v>
       </c>
     </row>
@@ -4917,7 +5197,7 @@
         <v>2112</v>
       </c>
       <c r="K146">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>774.38503071076411</v>
       </c>
     </row>
@@ -4926,7 +5206,7 @@
         <v>2113</v>
       </c>
       <c r="K147">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>779.77036105058505</v>
       </c>
     </row>
@@ -4935,7 +5215,7 @@
         <v>2114</v>
       </c>
       <c r="K148">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>785.18726761139988</v>
       </c>
     </row>
@@ -4944,7 +5224,7 @@
         <v>2115</v>
       </c>
       <c r="K149">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>790.63575039325224</v>
       </c>
     </row>
@@ -4953,7 +5233,7 @@
         <v>2116</v>
       </c>
       <c r="K150">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>796.11580939609848</v>
       </c>
     </row>
@@ -4962,7 +5242,7 @@
         <v>2117</v>
       </c>
       <c r="K151">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>801.62744461996772</v>
       </c>
     </row>
@@ -4971,7 +5251,7 @@
         <v>2118</v>
       </c>
       <c r="K152">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>807.17065606487449</v>
       </c>
     </row>
@@ -4980,7 +5260,7 @@
         <v>2119</v>
       </c>
       <c r="K153">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>812.74544373077515</v>
       </c>
     </row>
@@ -4989,7 +5269,7 @@
         <v>2120</v>
       </c>
       <c r="K154">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>818.35180761771335</v>
       </c>
     </row>
@@ -4998,7 +5278,7 @@
         <v>2121</v>
       </c>
       <c r="K155">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>823.98974772565998</v>
       </c>
     </row>
@@ -5007,7 +5287,7 @@
         <v>2122</v>
       </c>
       <c r="K156">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>829.65926405461505</v>
       </c>
     </row>
@@ -5016,7 +5296,7 @@
         <v>2123</v>
       </c>
       <c r="K157">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>835.36035660460766</v>
       </c>
     </row>
@@ -5025,7 +5305,7 @@
         <v>2124</v>
       </c>
       <c r="K158">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>841.0930253756087</v>
       </c>
     </row>
@@ -5034,7 +5314,7 @@
         <v>2125</v>
       </c>
       <c r="K159">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>846.85727036763274</v>
       </c>
     </row>
@@ -5043,7 +5323,7 @@
         <v>2126</v>
       </c>
       <c r="K160">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>852.6530915806652</v>
       </c>
     </row>
@@ -5052,7 +5332,7 @@
         <v>2127</v>
       </c>
       <c r="K161">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>858.48048901472066</v>
       </c>
     </row>
@@ -5061,7 +5341,7 @@
         <v>2128</v>
       </c>
       <c r="K162">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>864.3394626697991</v>
       </c>
     </row>
@@ -5070,7 +5350,7 @@
         <v>2129</v>
       </c>
       <c r="K163">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>870.23001254588598</v>
       </c>
     </row>
@@ -5079,7 +5359,7 @@
         <v>2130</v>
       </c>
       <c r="K164">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>876.1521386430104</v>
       </c>
     </row>
